--- a/Modeles/Modele_Grille_Importations.xlsx
+++ b/Modeles/Modele_Grille_Importations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps-ecoles\sipaie-ecole\Modeles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\eteelo-app\Modeles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>N°</t>
   </si>
@@ -337,37 +337,7 @@
     <t>100</t>
   </si>
   <si>
-    <t xml:space="preserve">LISTE DES ELEVES </t>
-  </si>
-  <si>
-    <t>BOMBOLO</t>
-  </si>
-  <si>
-    <t>BOELE</t>
-  </si>
-  <si>
-    <t>CHELLA</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>MATONDO</t>
-  </si>
-  <si>
-    <t>MVUETE</t>
-  </si>
-  <si>
-    <t>TRESOR</t>
-  </si>
-  <si>
-    <t>MBENGANI</t>
-  </si>
-  <si>
-    <t>MAKIADI</t>
-  </si>
-  <si>
-    <t>MALACHIE</t>
+    <t xml:space="preserve">FICHE D'IMPORTATION DES ELEVES </t>
   </si>
 </sst>
 </file>
@@ -772,7 +742,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,52 +790,28 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
